--- a/output/combined_output.xlsx
+++ b/output/combined_output.xlsx
@@ -524,10 +524,14 @@
       <c r="F2" t="inlineStr"/>
       <c r="G2" t="inlineStr">
         <is>
-          <t>6.5 | 11.5 | 14.5 years</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr"/>
+          <t>6.5 | 11.5 | 14.5</t>
+        </is>
+      </c>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t>BNP Paribas Real Estate</t>
+        </is>
+      </c>
       <c r="I2" t="inlineStr">
         <is>
           <t>Recht Kontraktlogistik GmbH</t>

--- a/output/combined_output.xlsx
+++ b/output/combined_output.xlsx
@@ -527,11 +527,7 @@
           <t>6.5 | 11.5 | 14.5</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>BNP Paribas Real Estate</t>
-        </is>
-      </c>
+      <c r="H2" t="inlineStr"/>
       <c r="I2" t="inlineStr">
         <is>
           <t>Recht Kontraktlogistik GmbH</t>
@@ -544,7 +540,7 @@
       </c>
       <c r="K2" t="inlineStr">
         <is>
-          <t>EUR 1,874,886 P.A.</t>
+          <t>EUR 1,874,886</t>
         </is>
       </c>
       <c r="L2" t="inlineStr">
@@ -654,7 +650,7 @@
         </is>
       </c>
       <c r="J4" t="n">
-        <v>1500</v>
+        <v>2000</v>
       </c>
       <c r="K4" t="n">
         <v>7000</v>
